--- a/TestPLACE.xlsx
+++ b/TestPLACE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="187">
   <si>
     <t>Center-X(mm)</t>
   </si>
@@ -551,6 +551,30 @@
   </si>
   <si>
     <t>119.4070mm</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>99.9999mm</t>
+  </si>
+  <si>
+    <t>55.5555mm</t>
+  </si>
+  <si>
+    <t>999.9999mm</t>
+  </si>
+  <si>
+    <t>555.5555mm</t>
+  </si>
+  <si>
+    <t>Erp Code</t>
   </si>
 </sst>
 </file>
@@ -1393,9 +1417,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1403,9 +1429,10 @@
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1418,8 +1445,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1432,8 +1462,11 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1">
+        <v>130100009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1446,8 +1479,11 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1">
+        <v>130100001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1460,8 +1496,11 @@
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1">
+        <v>130100010</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1474,8 +1513,11 @@
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1">
+        <v>130100014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,8 +1530,11 @@
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1">
+        <v>130100009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1502,8 +1547,11 @@
       <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1">
+        <v>130100009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1516,8 +1564,11 @@
       <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <v>130100011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1530,8 +1581,11 @@
       <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1">
+        <v>130100010</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -1544,8 +1598,11 @@
       <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1">
+        <v>130100010</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1558,8 +1615,11 @@
       <c r="D11" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1">
+        <v>130100009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -1572,8 +1632,11 @@
       <c r="D12" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1">
+        <v>130100009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -1586,8 +1649,11 @@
       <c r="D13" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1">
+        <v>130100009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -1600,8 +1666,11 @@
       <c r="D14" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1">
+        <v>130100009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1614,8 +1683,11 @@
       <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1">
+        <v>130100009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -1628,8 +1700,11 @@
       <c r="D16" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1">
+        <v>130100009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -1642,8 +1717,11 @@
       <c r="D17" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1">
+        <v>130100009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
@@ -1656,8 +1734,11 @@
       <c r="D18" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1">
+        <v>130100009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -1670,8 +1751,11 @@
       <c r="D19" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1">
+        <v>130100014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
@@ -1684,8 +1768,11 @@
       <c r="D20" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1">
+        <v>130100016</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
@@ -1698,8 +1785,11 @@
       <c r="D21" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1">
+        <v>130100016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>64</v>
       </c>
@@ -1712,8 +1802,11 @@
       <c r="D22" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1">
+        <v>130100010</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
@@ -1726,8 +1819,11 @@
       <c r="D23" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1">
+        <v>130100010</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>69</v>
       </c>
@@ -1740,8 +1836,11 @@
       <c r="D24" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1">
+        <v>130100010</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>71</v>
       </c>
@@ -1754,8 +1853,11 @@
       <c r="D25" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="1">
+        <v>130100010</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>73</v>
       </c>
@@ -1768,8 +1870,11 @@
       <c r="D26" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="1">
+        <v>130100010</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>75</v>
       </c>
@@ -1782,8 +1887,11 @@
       <c r="D27" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="1">
+        <v>130100010</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>77</v>
       </c>
@@ -1796,8 +1904,11 @@
       <c r="D28" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="1">
+        <v>130100010</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
@@ -1810,8 +1921,11 @@
       <c r="D29" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="1">
+        <v>130100010</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
@@ -1824,8 +1938,11 @@
       <c r="D30" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" s="1">
+        <v>130100010</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>85</v>
       </c>
@@ -1838,8 +1955,11 @@
       <c r="D31" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="1">
+        <v>130100011</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>85</v>
       </c>
@@ -1852,8 +1972,11 @@
       <c r="D32" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="1">
+        <v>130100010</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>90</v>
       </c>
@@ -1866,8 +1989,11 @@
       <c r="D33" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" s="1">
+        <v>130100011</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>93</v>
       </c>
@@ -1880,8 +2006,11 @@
       <c r="D34" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="1">
+        <v>130100011</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>96</v>
       </c>
@@ -1894,8 +2023,11 @@
       <c r="D35" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" s="1">
+        <v>130100010</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>99</v>
       </c>
@@ -1908,8 +2040,11 @@
       <c r="D36" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" s="1">
+        <v>130100011</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>102</v>
       </c>
@@ -1922,8 +2057,11 @@
       <c r="D37" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" s="1">
+        <v>130100011</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>105</v>
       </c>
@@ -1936,8 +2074,11 @@
       <c r="D38" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" s="1">
+        <v>130100010</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>108</v>
       </c>
@@ -1950,8 +2091,11 @@
       <c r="D39" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" s="1">
+        <v>130100011</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>111</v>
       </c>
@@ -1964,8 +2108,11 @@
       <c r="D40" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" s="1">
+        <v>130100011</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>114</v>
       </c>
@@ -1978,8 +2125,11 @@
       <c r="D41" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" s="1">
+        <v>130100015</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>117</v>
       </c>
@@ -1992,8 +2142,11 @@
       <c r="D42" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" s="1">
+        <v>130100012</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>120</v>
       </c>
@@ -2006,8 +2159,11 @@
       <c r="D43" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" s="1">
+        <v>130100012</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
         <v>123</v>
       </c>
@@ -2020,8 +2176,11 @@
       <c r="D44" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" s="1">
+        <v>130100012</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
         <v>126</v>
       </c>
@@ -2034,8 +2193,11 @@
       <c r="D45" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" s="1">
+        <v>130100012</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
         <v>129</v>
       </c>
@@ -2048,8 +2210,11 @@
       <c r="D46" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" s="1">
+        <v>130100012</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
         <v>132</v>
       </c>
@@ -2062,8 +2227,11 @@
       <c r="D47" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" s="1">
+        <v>130100014</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
         <v>135</v>
       </c>
@@ -2076,8 +2244,11 @@
       <c r="D48" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" s="1">
+        <v>130100014</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
@@ -2090,8 +2261,11 @@
       <c r="D49" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" s="1">
+        <v>130100009</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>7</v>
       </c>
@@ -2104,8 +2278,11 @@
       <c r="D50" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" s="1">
+        <v>130100001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>10</v>
       </c>
@@ -2118,8 +2295,11 @@
       <c r="D51" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" s="1">
+        <v>130100010</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>13</v>
       </c>
@@ -2132,8 +2312,11 @@
       <c r="D52" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" s="1">
+        <v>130100014</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>16</v>
       </c>
@@ -2146,8 +2329,11 @@
       <c r="D53" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" s="1">
+        <v>130100009</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
         <v>19</v>
       </c>
@@ -2160,8 +2346,11 @@
       <c r="D54" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" s="1">
+        <v>130100009</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
         <v>22</v>
       </c>
@@ -2174,8 +2363,11 @@
       <c r="D55" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" s="1">
+        <v>130100011</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
         <v>25</v>
       </c>
@@ -2188,8 +2380,11 @@
       <c r="D56" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" s="1">
+        <v>130100010</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
         <v>28</v>
       </c>
@@ -2202,8 +2397,11 @@
       <c r="D57" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" s="1">
+        <v>130100010</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
         <v>31</v>
       </c>
@@ -2216,8 +2414,11 @@
       <c r="D58" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" s="1">
+        <v>130100009</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
         <v>34</v>
       </c>
@@ -2230,8 +2431,11 @@
       <c r="D59" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" s="1">
+        <v>130100009</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
         <v>37</v>
       </c>
@@ -2244,8 +2448,11 @@
       <c r="D60" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" s="1">
+        <v>130100009</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
         <v>40</v>
       </c>
@@ -2258,8 +2465,11 @@
       <c r="D61" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61" s="1">
+        <v>130100009</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
         <v>43</v>
       </c>
@@ -2272,8 +2482,11 @@
       <c r="D62" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" s="1">
+        <v>130100009</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,8 +2499,11 @@
       <c r="D63" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63" s="1">
+        <v>130100009</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
         <v>49</v>
       </c>
@@ -2300,8 +2516,11 @@
       <c r="D64" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64" s="1">
+        <v>130100009</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
         <v>52</v>
       </c>
@@ -2314,8 +2533,11 @@
       <c r="D65" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" s="1">
+        <v>130100009</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>55</v>
       </c>
@@ -2328,8 +2550,11 @@
       <c r="D66" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66" s="1">
+        <v>130100014</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2342,8 +2567,11 @@
       <c r="D67" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67" s="1">
+        <v>130100016</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
         <v>61</v>
       </c>
@@ -2356,8 +2584,11 @@
       <c r="D68" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68" s="1">
+        <v>130100016</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
         <v>64</v>
       </c>
@@ -2370,8 +2601,11 @@
       <c r="D69" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69" s="1">
+        <v>130100010</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
         <v>66</v>
       </c>
@@ -2384,8 +2618,11 @@
       <c r="D70" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70" s="1">
+        <v>130100010</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
@@ -2398,8 +2635,11 @@
       <c r="D71" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71" s="1">
+        <v>130100010</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
@@ -2412,8 +2652,11 @@
       <c r="D72" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72" s="1">
+        <v>130100010</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
@@ -2426,8 +2669,11 @@
       <c r="D73" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73" s="1">
+        <v>130100010</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
         <v>75</v>
       </c>
@@ -2440,8 +2686,11 @@
       <c r="D74" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74" s="1">
+        <v>130100010</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
         <v>77</v>
       </c>
@@ -2454,8 +2703,11 @@
       <c r="D75" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75" s="1">
+        <v>130100010</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
         <v>79</v>
       </c>
@@ -2468,8 +2720,11 @@
       <c r="D76" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76" s="1">
+        <v>130100010</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
         <v>82</v>
       </c>
@@ -2482,8 +2737,11 @@
       <c r="D77" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77" s="1">
+        <v>130100010</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
         <v>85</v>
       </c>
@@ -2496,8 +2754,11 @@
       <c r="D78" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78" s="1">
+        <v>130100011</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
         <v>85</v>
       </c>
@@ -2510,8 +2771,11 @@
       <c r="D79" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79" s="1">
+        <v>130100010</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
         <v>90</v>
       </c>
@@ -2524,8 +2788,11 @@
       <c r="D80" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80" s="1">
+        <v>130100011</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
@@ -2538,8 +2805,11 @@
       <c r="D81" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81" s="1">
+        <v>130100011</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
         <v>96</v>
       </c>
@@ -2552,8 +2822,11 @@
       <c r="D82" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82" s="1">
+        <v>130100010</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
         <v>99</v>
       </c>
@@ -2566,8 +2839,11 @@
       <c r="D83" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83" s="1">
+        <v>130100011</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="1" t="s">
         <v>102</v>
       </c>
@@ -2580,8 +2856,11 @@
       <c r="D84" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84" s="1">
+        <v>130100011</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="1" t="s">
         <v>105</v>
       </c>
@@ -2594,8 +2873,11 @@
       <c r="D85" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85" s="1">
+        <v>130100010</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" s="1" t="s">
         <v>108</v>
       </c>
@@ -2608,8 +2890,11 @@
       <c r="D86" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86" s="1">
+        <v>130100011</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" s="1" t="s">
         <v>111</v>
       </c>
@@ -2622,8 +2907,11 @@
       <c r="D87" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87" s="1">
+        <v>130100011</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="1" t="s">
         <v>114</v>
       </c>
@@ -2636,8 +2924,11 @@
       <c r="D88" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88" s="1">
+        <v>130100015</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="1" t="s">
         <v>117</v>
       </c>
@@ -2650,8 +2941,11 @@
       <c r="D89" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89" s="1">
+        <v>130100012</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="1" t="s">
         <v>120</v>
       </c>
@@ -2664,8 +2958,11 @@
       <c r="D90" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90" s="1">
+        <v>130100012</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="1" t="s">
         <v>123</v>
       </c>
@@ -2678,8 +2975,11 @@
       <c r="D91" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="E91" s="1">
+        <v>130100012</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="1" t="s">
         <v>126</v>
       </c>
@@ -2692,8 +2992,11 @@
       <c r="D92" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="E92" s="1">
+        <v>130100012</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="1" t="s">
         <v>129</v>
       </c>
@@ -2706,8 +3009,11 @@
       <c r="D93" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93" s="1">
+        <v>130100012</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
         <v>132</v>
       </c>
@@ -2720,8 +3026,11 @@
       <c r="D94" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94" s="1">
+        <v>130100014</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="1" t="s">
         <v>135</v>
       </c>
@@ -2733,6 +3042,60 @@
       </c>
       <c r="D95" s="1" t="s">
         <v>137</v>
+      </c>
+      <c r="E95" s="1">
+        <v>130100014</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C96" s="1">
+        <v>90</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E96" s="1">
+        <v>130100099</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C97" s="1">
+        <v>90</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E97" s="1">
+        <v>130100098</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C98" s="1">
+        <v>90</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E98" s="1">
+        <v>130100097</v>
       </c>
     </row>
   </sheetData>
